--- a/etf_dfs/AGT.xlsx
+++ b/etf_dfs/AGT.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>AGT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,1960 +426,2048 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>AGT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>25.06999969482422</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>25.06999969482422</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="F2">
-        <v>23.65864372253418</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>23.65864562988281</v>
+      </c>
+      <c r="G2" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>26.36000061035156</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26.3799991607666</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>26.36000061035156</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>26.3799991607666</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>25.00461196899414</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1300</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.05689103078442459</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="F4">
-        <v>23.99039268493652</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>23.99039649963379</v>
+      </c>
+      <c r="G4" t="n">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.04056102080607971</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.06890900652018686</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="F5">
-        <v>24.6728572845459</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>24.67286109924316</v>
+      </c>
+      <c r="G5" t="n">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.02844730288011155</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.05011336607178943</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>25.8390007019043</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>25.89999961853027</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>25.83499908447266</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>25.89999961853027</v>
       </c>
-      <c r="F6">
-        <v>24.54963302612305</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>24.54963874816895</v>
+      </c>
+      <c r="G6" t="n">
         <v>400</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.004994278320627599</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.04211217239066297</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>27.22999954223633</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>27.44000053405762</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>27.20999908447266</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>27.44000053405762</v>
       </c>
-      <c r="F7">
-        <v>26.00934410095215</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>26.00934219360352</v>
+      </c>
+      <c r="G7" t="n">
         <v>1400</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.05945949568375841</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.04266612624686188</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>27.26000022888184</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>27.35000038146973</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>27.23999977111816</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>27.35000038146973</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>25.92403602600098</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>27400</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.003279888878871762</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.03931249722947771</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>27.89999961853027</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>27.89999961853027</v>
       </c>
-      <c r="F9">
-        <v>26.44536399841309</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>26.44536209106445</v>
+      </c>
+      <c r="G9" t="n">
         <v>254800</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.02010966103800071</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.03592093782685435</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>30.22999954223633</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>30.22999954223633</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>30.18000030517578</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>30.18000030517578</v>
       </c>
-      <c r="F10">
-        <v>28.91972160339355</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>28.91971969604492</v>
+      </c>
+      <c r="G10" t="n">
         <v>62000</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.08172045583582044</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.04045200227497363</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>32.78900146484375</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>32.78900146484375</v>
       </c>
-      <c r="F11">
-        <v>31.41977691650391</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>31.41977119445801</v>
+      </c>
+      <c r="G11" t="n">
         <v>2200</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.08644801634480204</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.04307127534309826</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>31.89999961853027</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>31.89999961853027</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>31.61000061035156</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>31.61000061035156</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>30.29000663757324</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>195400</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>-0.03595720521578882</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.04588210177900326</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>30.13999938964844</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>30.56999969482422</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>30</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>30.55999946594238</v>
       </c>
-      <c r="F13">
-        <v>29.28385353088379</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>29.28385162353516</v>
+      </c>
+      <c r="G13" t="n">
         <v>4200</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-0.03321737184862084</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.04691429568924038</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>29.93000030517578</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>30.11000061035156</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>29.93000030517578</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>29.98999977111816</v>
       </c>
-      <c r="F14">
-        <v>28.7376537322998</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>28.73765563964844</v>
+      </c>
+      <c r="G14" t="n">
         <v>4700</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.01865182280056832</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.04607047847656805</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.2015224707990722</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.2015224707990722</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>25.36000061035156</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>25.38999938964844</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>25.36000061035156</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>25.38999938964844</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>24.32974433898926</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>500</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>-0.1533844753776807</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.06451526395185821</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.03752842314682603</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.03752842314682603</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>23.36000061035156</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>23.3799991607666</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>22.80999946594238</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>22.8700008392334</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>22.10364532470703</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>27700</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.09925161918052072</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.06777460760405042</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.09640453094407575</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.09640453094407575</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>25.12700080871582</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>25.29999923706055</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>25.12700080871582</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>25.29999923706055</v>
       </c>
-      <c r="F17">
-        <v>24.45221328735352</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>24.45221710205078</v>
+      </c>
+      <c r="G17" t="n">
         <v>13300</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.1062526588830943</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.07124540008504046</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.02804461891387822</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.02804461891387822</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>21.17000007629395</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>22.09000015258789</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>21.17000007629395</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>22.09000015258789</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>21.34978294372559</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>14200</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.1268774379949589</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.07613950757365955</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.1471042286508955</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.1471042286508955</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>22.45000076293945</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>22.51000022888184</v>
       </c>
-      <c r="F19">
-        <v>21.75570678710938</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>21.75571060180664</v>
+      </c>
+      <c r="G19" t="n">
         <v>3000</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.01901313143471128</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.07394770446524497</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.1796647306568682</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.1796647306568682</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>20.95999908447266</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>21.11000061035156</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>20.92000007629395</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>21.11000061035156</v>
       </c>
-      <c r="F20">
-        <v>20.40261840820312</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>20.40262031555176</v>
+      </c>
+      <c r="G20" t="n">
         <v>2000</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-0.06219456260751077</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.07306594365135627</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>-0.2281535533486102</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-0.2281535533486102</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>21.80999946594238</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>21.80999946594238</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>21.72500038146973</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>21.72500038146973</v>
       </c>
-      <c r="F21">
-        <v>20.99701118469238</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>20.99701309204102</v>
+      </c>
+      <c r="G21" t="n">
         <v>400</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.02913310058440222</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.07148077472606976</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>-0.2213261405551888</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.2213261405551888</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>19.93099975585938</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>20.1200008392334</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>19.86000061035156</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>20.1200008392334</v>
       </c>
-      <c r="F22">
-        <v>19.46814346313477</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>19.4681453704834</v>
+      </c>
+      <c r="G22" t="n">
         <v>500</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>-0.07387799834541353</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.07126906410214581</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>-0.3333333122669692</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.3333333122669692</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>24.00799942016602</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>24.00799942016602</v>
       </c>
-      <c r="F23">
-        <v>23.23017883300781</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>23.23017692565918</v>
+      </c>
+      <c r="G23" t="n">
         <v>88500</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.1932404780695205</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.0822092167134346</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-0.2678032770864551</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-0.2678032770864551</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>24.11400032043457</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>24.32999992370605</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>24.02000045776367</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>24.14900016784668</v>
       </c>
-      <c r="F24">
-        <v>23.36660957336426</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>23.36661148071289</v>
+      </c>
+      <c r="G24" t="n">
         <v>7700</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.005873073604051537</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.0802337615029553</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-0.2360329104220762</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-0.2360329104220762</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>23.54000091552734</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>23.54000091552734</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>23.68899917602539</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>22.9215145111084</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>1000</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.01904844874007494</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.07850676459248097</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.2248364008505427</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-0.2248364008505427</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>22.27000045776367</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>22.3799991607666</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>22.14999961853027</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>22.35499954223633</v>
       </c>
-      <c r="F26">
-        <v>21.6307315826416</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>21.63073348999023</v>
+      </c>
+      <c r="G26" t="n">
         <v>2600</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>-0.05631304319260333</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.07765701615921841</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>-0.2545848711954548</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>-0.2545848711954548</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>24.09000015258789</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>24.12599945068359</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>24.09000015258789</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>24.12599945068359</v>
       </c>
-      <c r="F27">
-        <v>23.34435653686523</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>23.3443546295166</v>
+      </c>
+      <c r="G27" t="n">
         <v>100</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.07922164816426114</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.07772598491453286</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-0.04978337807602229</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>-0.04978337807602229</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>27.65500068664551</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>27.65500068664551</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>27.65500068664551</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>27.65500068664551</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>26.98427772521973</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>100</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.1462737841462531</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.08127420277680991</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.2092260459913697</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.2092260459913697</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>28.04999923706055</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>28.06999969482422</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>27.70199966430664</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>27.70199966430664</v>
       </c>
-      <c r="F29">
-        <v>27.03013610839844</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>27.03013801574707</v>
+      </c>
+      <c r="G29" t="n">
         <v>5200</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>0.001699474832550951</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.07970267736800046</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.09494073121265312</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.09494073121265312</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>19.73999977111816</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>19.73999977111816</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>19.33699989318848</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>19.33699989318848</v>
       </c>
-      <c r="F30">
-        <v>18.86801338195801</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>18.86801528930664</v>
+      </c>
+      <c r="G30" t="n">
         <v>9900</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>-0.301963752526366</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.0975918272244794</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>-0.1246265387226307</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>-0.1246265387226307</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>19.60000038146973</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>19.61599922180176</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>19.41500091552734</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>19.61599922180176</v>
       </c>
-      <c r="F31">
-        <v>19.14024925231934</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>19.1402473449707</v>
+      </c>
+      <c r="G31" t="n">
         <v>3700</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.0144282634407813</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.09589525023373961</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>-0.1285651256176746</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>-0.1285651256176746</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>19</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>19</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>18.80900001525879</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>18.80900001525879</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>18.35282135009766</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>1400</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>-0.04113984699010631</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.09447770275873983</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>-0.1090004987477096</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>-0.1090004987477096</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>20.3700008392334</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>20.52000045776367</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>20.29999923706055</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>20.29999923706055</v>
       </c>
-      <c r="F33">
-        <v>19.80765724182129</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>19.80766105651855</v>
+      </c>
+      <c r="G33" t="n">
         <v>3600</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.07927052052699168</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.09410752422493239</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>-0.0655926867382074</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>-0.0655926867382074</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>22.98999977111816</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>22.98999977111816</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>22.72999954223633</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>22.81500053405762</v>
       </c>
-      <c r="F34">
-        <v>22.34721755981445</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>22.34721565246582</v>
+      </c>
+      <c r="G34" t="n">
         <v>1700</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>0.1238916941634942</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.09521620803471799</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.133946301312724</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.133946301312724</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>21.80999946594238</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>21.87899971008301</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>21.80999946594238</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>21.87899971008301</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>21.43040657043457</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>500</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.04102567618078168</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.09401401654027364</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>-0.08867876380797934</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>-0.08867876380797934</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>19.27000045776367</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>19.7140007019043</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>19.13999938964844</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>19.7140007019043</v>
       </c>
-      <c r="F36">
-        <v>19.30979919433594</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>19.3097972869873</v>
+      </c>
+      <c r="G36" t="n">
         <v>4500</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>-0.09895329022656207</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.09413960093962979</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>-0.1836514735648306</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>-0.1836514735648306</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>13.6899995803833</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>14.15100002288818</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>13.6899995803833</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>14.07199954986572</v>
       </c>
-      <c r="F37">
-        <v>13.78347682952881</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>13.78347778320312</v>
+      </c>
+      <c r="G37" t="n">
         <v>7200</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-0.286192601763151</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.1044212181686076</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>-0.4059690134943572</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>-0.4059690134943572</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>15.97000026702881</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>16.01000022888184</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>15.52200031280518</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>15.56700038909912</v>
       </c>
-      <c r="F38">
-        <v>15.24782466888428</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>15.24782562255859</v>
+      </c>
+      <c r="G38" t="n">
         <v>600</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.1062394035713043</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.104739884365124</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-0.3036456851771492</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>-0.3036456851771492</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>18.73999977111816</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>18.77000045776367</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>18.70000076293945</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>18.77000045776367</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>18.38515281677246</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>600</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>0.2057557646691826</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.1090477488358812</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-0.2220011238857987</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>-0.2220011238857987</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>20.45999908447266</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>20.45999908447266</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>20.45199966430664</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>20.45199966430664</v>
       </c>
-      <c r="F40">
-        <v>20.09467697143555</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>20.09467887878418</v>
+      </c>
+      <c r="G40" t="n">
         <v>200</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>0.08961103705499696</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.1085735606607425</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.2604592602963546</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.2604592602963546</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>23.25</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>23.25</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>22.76799964904785</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>22.86100006103516</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>22.46158981323242</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>600</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>0.1177880127258542</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.1087567526351927</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>-0.1747527132313482</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-0.1747527132313482</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>22.25</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>22.25</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>22.01000022888184</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>22.01000022888184</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>21.62545776367188</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>18500</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.0372249608451638</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.1075505650677246</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>0.1382324223229132</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>0.1382324223229132</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>19.97900009155273</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>19.97900009155273</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>19.97900009155273</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>19.97900009155273</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>19.62994194030762</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>100</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>-0.09227624335341866</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.1072332124544485</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>0.0185053468674452</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>0.0185053468674452</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>20.23999977111816</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>20.23999977111816</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>20.20000076293945</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>20.20000076293945</v>
       </c>
-      <c r="F44">
-        <v>19.84708023071289</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>19.84708213806152</v>
+      </c>
+      <c r="G44" t="n">
         <v>300</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>0.01106164824936151</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.1059297308223091</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>0.07395399790271751</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>0.07395399790271751</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>24.55999946594238</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>24.51099967956543</v>
       </c>
-      <c r="F45">
-        <v>24.08275985717773</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>24.08276176452637</v>
+      </c>
+      <c r="G45" t="n">
         <v>11600</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.2134157798912206</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.1095663929929638</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>0.2074384532397962</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>0.2074384532397962</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>26.01799964904785</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>26.01799964904785</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>25.73772239685059</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>1100</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>0.06148259920784849</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.1086099078778664</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>0.1403900521592749</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>0.1403900521592749</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>25.1200008392334</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>25.19000053405762</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>24.65999984741211</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>24.69300079345703</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>24.4269962310791</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>1500</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>-0.05092623850655287</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.1077159286905349</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.1286165327785613</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.1286165327785613</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>25.01000022888184</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>25.09000015258789</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>24.75</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>24.97999954223633</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>24.71090316772461</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>7500</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.01162267604410983</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.1065158627306837</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.267119744995411</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.267119744995411</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>24.51000022888184</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>24.80999946594238</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>24.51000022888184</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>24.68400001525879</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>24.41809272766113</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>900</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>-0.01184946086476346</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.1053834997863009</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.7541217172291856</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.7541217172291856</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>25.60799980163574</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>25.60799980163574</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>25.60799980163574</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>25.60799980163574</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>25.33213806152344</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>100</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>0.03743314640276174</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.1043581127395218</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.6450182540990932</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.6450182540990932</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>26.32200050354004</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>26.32200050354004</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>26.0384464263916</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>400</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>0.02788193952808027</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.1033118575303916</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.4023441588491117</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.4023441588491117</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>26.63999938964844</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>26.69000053405762</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>26.51499938964844</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>26.57200050354004</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>26.32958984375</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>800</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.009497758347295049</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.1022530291990246</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.2992372843577824</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.2992372843577824</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>27.20000076293945</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>27.23999977111816</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>26.86400032043457</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>26.86400032043457</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>26.61892509460449</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>1400</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>0.01098900388985125</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.1012271327355921</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.1751017124671734</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.1751017124671734</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>31.88999938964844</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>31.88999938964844</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>31.01000022888184</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>31.17000007629395</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>30.88564300537109</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>20500</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.160288851418154</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.1024659744463605</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.416174454891292</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.416174454891292</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>28.54000091552734</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>28.54000091552734</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>28.52199935913086</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>28.52199935913086</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>28.26179885864258</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>200</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>-0.08495350371131372</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.1023057689371094</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.4275989403088378</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.4275989403088378</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>28.44000053405762</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>28.60000038146973</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>28.1879997253418</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>28.1879997253418</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>27.93084716796875</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>400</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.01171024617115901</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.1013712661854308</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.3954454782525438</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.3954454782525438</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>24.97999954223633</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>24.92000007629395</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>24.7322940826416</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>1100</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>-0.1145168395176007</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.1017684870654057</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.01831828202754027</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.01831828202754027</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>26.77400016784668</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>26.77400016784668</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>26.77400016784668</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>26.77400016784668</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>26.77400016784668</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>100</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>0.07267632812144198</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.1012396616947208</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.0290568271579823</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.0290568271579823</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B59" t="n">
+        <v>26.80900001525879</v>
+      </c>
+      <c r="C59" t="n">
+        <v>26.80900001525879</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.80900001525879</v>
+      </c>
+      <c r="E59" t="n">
+        <v>26.80900001525879</v>
+      </c>
+      <c r="F59" t="n">
+        <v>26.80900001525879</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.001307232658276591</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1003340670370928</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.085692267193481</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.085692267193481</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>